--- a/Correctifs-DemandeFMA/ig/all-profiles.xlsx
+++ b/Correctifs-DemandeFMA/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T12:14:57+00:00</t>
+    <t>2024-04-22T12:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -559,8 +559,8 @@
 </t>
   </si>
   <si>
-    <t>recommandé : Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | laboratory : résultat de labo (hors périmètre de ce profil) 
-survey : réponse à questionnaire ou score | exam : résultat d'examen clinique (hors périmètre TLS) | activity : activité physique (#pas, #longueurs de piscine, ...)</t>
+    <t>recommandé : Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | 
+survey : réponse à questionnaire ou score |  activity : activité physique (#pas, #longueurs de piscine, ...)</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -672,7 +672,7 @@
 Period</t>
   </si>
   <si>
-    <t>requis : le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de prélèvement pour un résultat de labo, ou la date et heure de pesage</t>
+    <t>requis : le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de pesage</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
